--- a/GoldenReference/GRHV_PositiveNegative_30v/Project Outputs for GRHV_PositiveNegative_30v/GRHV_PositiveNegative_30v.xlsx
+++ b/GoldenReference/GRHV_PositiveNegative_30v/Project Outputs for GRHV_PositiveNegative_30v/GRHV_PositiveNegative_30v.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopWorkSpace\Github\AltiumDesigner_Project\GoldenReference\GRHV_PositiveNegative_30v\Project Outputs for GRHV_PositiveNegative_30v\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="11565"/>
   </bookViews>
@@ -24,297 +19,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+  <si>
+    <t>LibRef</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <t>C-CAP</t>
+  </si>
+  <si>
+    <t>4700UF/16V</t>
   </si>
   <si>
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C-CAP</t>
-  </si>
-  <si>
-    <t>4700UF/16V</t>
+    <t>CAP 10*22*40</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>CAP 10*22*40</t>
+    <t>10UF/25V</t>
   </si>
   <si>
     <t>C3, C16</t>
   </si>
   <si>
-    <t>10UF/25V</t>
-  </si>
-  <si>
     <t>CAP 2.5*6.3*7</t>
   </si>
   <si>
+    <t>C-CBB</t>
+  </si>
+  <si>
+    <t>47pF/275V</t>
+  </si>
+  <si>
     <t>C4, C5</t>
   </si>
   <si>
-    <t>C-CBB</t>
-  </si>
-  <si>
-    <t>47pF/275V</t>
-  </si>
-  <si>
     <t>CBB 6.3*6.3*5</t>
   </si>
   <si>
+    <t>220UF/35V</t>
+  </si>
+  <si>
     <t>C6, C10</t>
   </si>
   <si>
-    <t>220UF/35V</t>
-  </si>
-  <si>
     <t>CAP 3.5*8*11.5</t>
   </si>
   <si>
+    <t>47UF/25V</t>
+  </si>
+  <si>
     <t>C7, C8, C9, C13</t>
   </si>
   <si>
-    <t>47UF/25V</t>
-  </si>
-  <si>
     <t>CAP 2.5*6.3*11.2</t>
   </si>
   <si>
+    <t>0.01uF/275V</t>
+  </si>
+  <si>
     <t>C11, C12, C14, C15</t>
   </si>
   <si>
-    <t>0.01uF/275V</t>
-  </si>
-  <si>
     <t>CBB 10*12*8</t>
   </si>
   <si>
+    <t>AC220</t>
+  </si>
+  <si>
     <t>CON1</t>
   </si>
   <si>
-    <t>AC220</t>
+    <t>EDG5.08-3P</t>
   </si>
   <si>
     <t>CON2</t>
   </si>
   <si>
-    <t>EDG5.08-3P</t>
-  </si>
-  <si>
     <t>HX5.08-3L</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>ValueValueAux</t>
+  </si>
+  <si>
     <t>D1, D2, D3, D8, D9</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>ValueValueAux</t>
-  </si>
-  <si>
     <t>LED 3MM-R</t>
   </si>
   <si>
+    <t>1N4739</t>
+  </si>
+  <si>
     <t>D4, D6</t>
   </si>
   <si>
-    <t>1N4739</t>
-  </si>
-  <si>
     <t>DO-41</t>
   </si>
   <si>
+    <t>LT1021-10-2P</t>
+  </si>
+  <si>
+    <t>10V Precision Reference 2 Pin Config</t>
+  </si>
+  <si>
     <t>D5, D7</t>
   </si>
   <si>
-    <t>LT1021-10-2P</t>
-  </si>
-  <si>
-    <t>10V Precision Reference 2 Pin Config</t>
-  </si>
-  <si>
     <t>DIP8-300_MH</t>
   </si>
   <si>
+    <t>1N4007</t>
+  </si>
+  <si>
     <t>D10, D11</t>
   </si>
   <si>
-    <t>1N4007</t>
+    <t>VS-HFA08TB60-M3</t>
+  </si>
+  <si>
+    <t>Ultrafast Soft Recovery Diado 8A 600V</t>
   </si>
   <si>
     <t>D21, D22, D23, D24</t>
   </si>
   <si>
-    <t>VS-HFA08TB60-M3</t>
-  </si>
-  <si>
-    <t>Ultrafast Soft Recovery Diado 8A 600V</t>
-  </si>
-  <si>
     <t>TO220AC</t>
   </si>
   <si>
+    <t>KSP92/93</t>
+  </si>
+  <si>
+    <t>High Voltage PNP Transistor</t>
+  </si>
+  <si>
     <t>Q1, Q3, Q6, Q13</t>
   </si>
   <si>
-    <t>KSP92/93</t>
-  </si>
-  <si>
-    <t>High Voltage PNP Transistor</t>
-  </si>
-  <si>
     <t>TO92A</t>
   </si>
   <si>
+    <t>KSP42/43</t>
+  </si>
+  <si>
+    <t>High Voltage NPN Transistor</t>
+  </si>
+  <si>
     <t>Q2, Q10, Q11, Q14</t>
   </si>
   <si>
-    <t>KSP42/43</t>
-  </si>
-  <si>
-    <t>High Voltage NPN Transistor</t>
+    <t>MJW21194</t>
+  </si>
+  <si>
+    <t>Power NPN Transistor</t>
   </si>
   <si>
     <t>Q4</t>
   </si>
   <si>
-    <t>MJW21194</t>
-  </si>
-  <si>
-    <t>Power NPN Transistor</t>
-  </si>
-  <si>
     <t>TO247V</t>
   </si>
   <si>
+    <t>MJF15031</t>
+  </si>
+  <si>
+    <t>Power PNP Transistor</t>
+  </si>
+  <si>
     <t>Q5</t>
   </si>
   <si>
-    <t>MJF15031</t>
-  </si>
-  <si>
-    <t>Power PNP Transistor</t>
-  </si>
-  <si>
     <t>TO220V</t>
   </si>
   <si>
+    <t>MJW21193</t>
+  </si>
+  <si>
     <t>Q7</t>
   </si>
   <si>
-    <t>MJW21193</t>
+    <t>DN2540</t>
   </si>
   <si>
     <t>Q8, Q12</t>
   </si>
   <si>
-    <t>DN2535</t>
+    <t>MJF15030</t>
   </si>
   <si>
     <t>Q9</t>
   </si>
   <si>
-    <t>MJF15030</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R-CRR</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
+    <t>R1, R4</t>
+  </si>
+  <si>
     <t>RS 1/4W</t>
   </si>
   <si>
-    <t>R2, R4, R5, R9, R11, R12</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
+    <t>R2, R5, R11, R12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>R3, R6, R19, R22</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R7, R8, R10</t>
-  </si>
-  <si>
     <t>1.5K</t>
   </si>
   <si>
+    <t>R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
     <t>R13, R14</t>
   </si>
   <si>
-    <t>2K</t>
+    <t>10K</t>
   </si>
   <si>
     <t>R15, R16</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R17, R18, R24</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
+    <t>R17, R18, R23, R24</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>R20, R21</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>R23</t>
+    <t>RPot</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
   </si>
   <si>
     <t>RV1, RV2</t>
   </si>
   <si>
-    <t>RPot</t>
-  </si>
-  <si>
-    <t>Potentiometer</t>
+    <t>VR5</t>
   </si>
   <si>
     <t>100K</t>
   </si>
   <si>
-    <t>VR5</t>
+    <t>OPA134PA</t>
   </si>
   <si>
     <t>U1, U2</t>
-  </si>
-  <si>
-    <t>OPA134PA</t>
   </si>
   <si>
     <r>
@@ -423,6 +415,15 @@
         <charset val="134"/>
       </rPr>
       <t>场效应管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 400V/150ma</t>
     </r>
   </si>
   <si>
@@ -808,19 +809,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,10 +852,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -862,34 +863,34 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="3">
         <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
         <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,91 +898,91 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
         <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="3">
         <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3">
         <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3">
+      <c r="F7" s="3">
         <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,22 +990,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,22 +1013,22 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3">
+      <c r="F9" s="3">
         <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,22 +1036,22 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3">
         <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,22 +1059,22 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3">
         <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1084,19 +1085,19 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
         <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,22 +1105,22 @@
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="3">
+      <c r="F13" s="3">
         <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,19 +1131,19 @@
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
         <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,19 +1154,19 @@
         <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
         <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,19 +1177,19 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3">
+      <c r="F16" s="3">
         <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,19 +1200,19 @@
         <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="3">
+      <c r="F17" s="3">
         <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,19 +1223,19 @@
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
         <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,22 +1243,22 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="3">
+      <c r="F19" s="3">
         <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1265,22 +1266,22 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
         <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,22 +1289,22 @@
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3">
         <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1311,183 +1312,183 @@
         <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3">
-        <v>6</v>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
         <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="3">
-        <v>3</v>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3">
         <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="3">
+      <c r="F27" s="3">
         <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="3">
-        <v>3</v>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="3">
+      <c r="F29" s="3">
         <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1495,73 +1496,50 @@
         <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="3">
+        <v>43</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GoldenReference/GRHV_PositiveNegative_30v/Project Outputs for GRHV_PositiveNegative_30v/GRHV_PositiveNegative_30v.xlsx
+++ b/GoldenReference/GRHV_PositiveNegative_30v/Project Outputs for GRHV_PositiveNegative_30v/GRHV_PositiveNegative_30v.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
   <si>
     <t>LibRef</t>
   </si>
@@ -96,30 +96,48 @@
     <t>CAP 2.5*6.3*11.2</t>
   </si>
   <si>
+    <t>0.1uF/275V</t>
+  </si>
+  <si>
+    <t>C11, C12, C14, C15</t>
+  </si>
+  <si>
+    <t>C-MKS</t>
+  </si>
+  <si>
+    <t>4.7uf/63v</t>
+  </si>
+  <si>
+    <t>C21, C22</t>
+  </si>
+  <si>
+    <t>CBB 7.2*7.2*13</t>
+  </si>
+  <si>
     <t>0.01uF/275V</t>
   </si>
   <si>
-    <t>C11, C12, C14, C15</t>
-  </si>
-  <si>
-    <t>CBB 10*12*8</t>
-  </si>
-  <si>
-    <t>AC220</t>
+    <t>C23, C24</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>AC220-3</t>
   </si>
   <si>
     <t>CON1</t>
   </si>
   <si>
+    <t>HX5.08-3L</t>
+  </si>
+  <si>
     <t>EDG5.08-3P</t>
   </si>
   <si>
     <t>CON2</t>
   </si>
   <si>
-    <t>HX5.08-3L</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -171,6 +189,15 @@
     <t>TO220AC</t>
   </si>
   <si>
+    <t>1N914</t>
+  </si>
+  <si>
+    <t>D31, D32, D33, D34</t>
+  </si>
+  <si>
+    <t>DO-35</t>
+  </si>
+  <si>
     <t>KSP92/93</t>
   </si>
   <si>
@@ -288,25 +315,22 @@
     <t>R20, R21</t>
   </si>
   <si>
-    <t>RPot</t>
-  </si>
-  <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
-    <t>RV1, RV2</t>
-  </si>
-  <si>
-    <t>VR5</t>
+    <t>OPA134PA</t>
+  </si>
+  <si>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>VR-W</t>
+  </si>
+  <si>
+    <t>VR1, VR2</t>
+  </si>
+  <si>
+    <t>RS 1/2W-VR</t>
   </si>
   <si>
     <t>100K</t>
-  </si>
-  <si>
-    <t>OPA134PA</t>
-  </si>
-  <si>
-    <t>U1, U2</t>
   </si>
   <si>
     <r>
@@ -337,6 +361,21 @@
   </si>
   <si>
     <r>
+      <t>MKS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>薄膜电容</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
@@ -385,6 +424,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高速开关管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1V/0.25W</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>N</t>
     </r>
     <r>
@@ -436,6 +496,37 @@
         <charset val="134"/>
       </rPr>
       <t>直插色环电阻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直插可调电阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顶调</t>
     </r>
   </si>
 </sst>
@@ -809,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,8 +911,8 @@
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -875,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -898,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -921,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -944,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -967,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -976,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
@@ -987,10 +1078,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -999,10 +1090,10 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1010,33 +1101,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -1048,7 +1139,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1059,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1068,10 +1159,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1079,22 +1170,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -1102,19 +1193,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -1140,7 +1231,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1151,19 +1242,19 @@
         <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1171,19 +1262,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
@@ -1194,22 +1285,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -1217,22 +1308,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -1240,22 +1331,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -1263,22 +1354,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -1286,19 +1377,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1309,22 +1400,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -1332,22 +1423,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -1355,22 +1446,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -1378,22 +1469,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -1401,22 +1492,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -1424,22 +1515,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -1447,42 +1538,42 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -1493,33 +1584,33 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>94</v>
@@ -1528,13 +1619,82 @@
         <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
